--- a/data/nodes upstream of AW reaches.xlsx
+++ b/data/nodes upstream of AW reaches.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\aw\aw-flowmgmt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB649AB-17E4-443D-B2AA-1FD844782805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00320409-5CBB-4777-A383-EC199E1CDB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="7" xr2:uid="{5F36AC51-C462-45CB-A778-7E9CABDBEEA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5F36AC51-C462-45CB-A778-7E9CABDBEEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Crosswalk" sheetId="16" r:id="rId1"/>
-    <sheet name="Yampa Gages" sheetId="13" r:id="rId2"/>
-    <sheet name="RF_Crystal Gages" sheetId="14" r:id="rId3"/>
-    <sheet name="Deerlodge park to echo park" sheetId="1" r:id="rId4"/>
-    <sheet name="Cross Mtn Gorge to Deerlodge" sheetId="2" r:id="rId5"/>
-    <sheet name="Little Yampa Canyon" sheetId="3" r:id="rId6"/>
-    <sheet name="Transit Center to Pump Station" sheetId="4" r:id="rId7"/>
-    <sheet name="Y River Park to Transit" sheetId="15" r:id="rId8"/>
-    <sheet name="Avalanche Creek to BRB Campgrd" sheetId="5" r:id="rId9"/>
-    <sheet name="Weller Lake" sheetId="12" r:id="rId10"/>
-    <sheet name="Slaughterhouse" sheetId="7" r:id="rId11"/>
-    <sheet name="Upper Woody Creek Bridge" sheetId="8" r:id="rId12"/>
-    <sheet name="Lower Woody Creek Bridge" sheetId="9" r:id="rId13"/>
-    <sheet name="Basalt to Carbondale" sheetId="10" r:id="rId14"/>
-    <sheet name="Black Bridge to Veltus" sheetId="11" r:id="rId15"/>
+    <sheet name="needed_for_nat_flow_calc" sheetId="17" r:id="rId2"/>
+    <sheet name="Yampa Gages" sheetId="13" r:id="rId3"/>
+    <sheet name="RF_Crystal Gages" sheetId="14" r:id="rId4"/>
+    <sheet name="Deerlodge park to echo park" sheetId="1" r:id="rId5"/>
+    <sheet name="Cross Mtn Gorge to Deerlodge" sheetId="2" r:id="rId6"/>
+    <sheet name="Little Yampa Canyon" sheetId="3" r:id="rId7"/>
+    <sheet name="Transit Center to Pump Station" sheetId="4" r:id="rId8"/>
+    <sheet name="Y River Park to Transit" sheetId="15" r:id="rId9"/>
+    <sheet name="Avalanche Creek to BRB Campgrd" sheetId="5" r:id="rId10"/>
+    <sheet name="Weller Lake" sheetId="12" r:id="rId11"/>
+    <sheet name="Slaughterhouse" sheetId="7" r:id="rId12"/>
+    <sheet name="Upper Woody Creek Bridge" sheetId="8" r:id="rId13"/>
+    <sheet name="Lower Woody Creek Bridge" sheetId="9" r:id="rId14"/>
+    <sheet name="Basalt to Carbondale" sheetId="10" r:id="rId15"/>
+    <sheet name="Black Bridge to Veltus" sheetId="11" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Crosswalk!$A$1:$I$17</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11377" uniqueCount="1596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11380" uniqueCount="1601">
   <si>
     <t>OBJECTID *</t>
   </si>
@@ -4838,7 +4839,22 @@
     <t>WEST THREE MILE DITCH</t>
   </si>
   <si>
-    <t xml:space="preserve">	3800740</t>
+    <t>Closest Node</t>
+  </si>
+  <si>
+    <t>Robinson Ditch</t>
+  </si>
+  <si>
+    <t>AW gage</t>
+  </si>
+  <si>
+    <t>Approximated node</t>
+  </si>
+  <si>
+    <t>Double circle nodes</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -4916,7 +4932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4942,6 +4958,8 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5261,7 +5279,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5270,7 +5288,7 @@
     <col min="3" max="3" width="51.44140625" customWidth="1"/>
     <col min="4" max="4" width="45.109375" customWidth="1"/>
     <col min="5" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="7" max="7" width="32.77734375" customWidth="1"/>
     <col min="9" max="9" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5294,7 +5312,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>1595</v>
       </c>
       <c r="H1" t="s">
         <v>1516</v>
@@ -5471,13 +5489,13 @@
         <v>1525</v>
       </c>
       <c r="E8" s="9">
-        <v>9073600</v>
+        <v>9076300</v>
       </c>
       <c r="F8">
-        <v>3802049</v>
+        <v>3802111</v>
       </c>
       <c r="G8" t="s">
-        <v>1189</v>
+        <v>1202</v>
       </c>
       <c r="H8" s="3">
         <v>417</v>
@@ -5500,13 +5518,13 @@
         <v>1525</v>
       </c>
       <c r="E9" s="9">
-        <v>9073600</v>
+        <v>9076300</v>
       </c>
       <c r="F9">
-        <v>3800659</v>
+        <v>3802111</v>
       </c>
       <c r="G9" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="H9" s="3">
         <v>2138</v>
@@ -5529,13 +5547,13 @@
         <v>1525</v>
       </c>
       <c r="E10" s="9">
-        <v>9073600</v>
+        <v>9076300</v>
       </c>
       <c r="F10">
-        <v>3800800</v>
+        <v>3802111</v>
       </c>
       <c r="G10" t="s">
-        <v>1249</v>
+        <v>1202</v>
       </c>
       <c r="H10" s="3">
         <v>1649</v>
@@ -5560,11 +5578,11 @@
       <c r="E11" s="9">
         <v>9081000</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>1595</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>1312</v>
+      <c r="F11">
+        <v>3800968</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1596</v>
       </c>
       <c r="H11" s="3">
         <v>1463</v>
@@ -5596,7 +5614,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1541</v>
       </c>
@@ -5621,7 +5639,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1546</v>
       </c>
@@ -5646,7 +5664,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1549</v>
       </c>
@@ -5671,7 +5689,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1552</v>
       </c>
@@ -5696,7 +5714,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1555</v>
       </c>
@@ -5725,6 +5743,7 @@
   <autoFilter ref="A1:I17" xr:uid="{09BBC11A-7204-4783-8439-560717E3D7F1}">
     <filterColumn colId="1">
       <filters>
+        <filter val="Crystal"/>
         <filter val="Roaring Fork"/>
       </filters>
     </filterColumn>
@@ -5755,6 +5774,267 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE5FA78-DC62-4E8F-B3D4-83AC931B2E06}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D2">
+        <v>3800522</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G2">
+        <v>309337</v>
+      </c>
+      <c r="H2">
+        <v>4353356</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="L2">
+        <v>3800522</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D3">
+        <v>3800651</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G3">
+        <v>308941</v>
+      </c>
+      <c r="H3">
+        <v>4351737</v>
+      </c>
+      <c r="I3">
+        <v>3800651</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="K3">
+        <v>3800651</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D4">
+        <v>3801038</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G4">
+        <v>308048</v>
+      </c>
+      <c r="H4">
+        <v>4349399</v>
+      </c>
+      <c r="I4">
+        <v>3801038</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="K4">
+        <v>3801038</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D5">
+        <v>3801052</v>
+      </c>
+      <c r="E5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G5">
+        <v>310046</v>
+      </c>
+      <c r="H5">
+        <v>4351460</v>
+      </c>
+      <c r="I5">
+        <v>3801052</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="K5">
+        <v>3801052</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D6">
+        <v>3802114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G6">
+        <v>307190</v>
+      </c>
+      <c r="H6">
+        <v>4346555</v>
+      </c>
+      <c r="I6">
+        <v>3802114</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="K6">
+        <v>3802114</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54274558-F041-4CBB-B51B-998A11D14FDE}">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -5975,7 +6255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98697E2-AFCC-4A83-A5B3-BF65358CC90F}">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -6974,7 +7254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D15BE69-BC8A-4FA6-B56B-B8C49FC15286}">
   <dimension ref="A1:M32"/>
   <sheetViews>
@@ -8301,7 +8581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8484199-768D-43C5-9E17-FB345EAEB5A3}">
   <dimension ref="A1:M52"/>
   <sheetViews>
@@ -10448,7 +10728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC536300-D741-4DAD-AC43-CDDEA25496B3}">
   <dimension ref="A1:M84"/>
   <sheetViews>
@@ -13907,11 +14187,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1275BA35-C309-4CA7-819A-21CFBD71BEFD}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="A120" sqref="A120:M123"/>
     </sheetView>
   </sheetViews>
@@ -18802,6 +19082,122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200B5808-433A-4996-81D0-ACF784E66B5B}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>9076300</v>
+      </c>
+      <c r="B2">
+        <v>3802111</v>
+      </c>
+      <c r="C2">
+        <v>3801104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="C3">
+        <v>3800854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="C4">
+        <v>3800869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="C5">
+        <v>9074000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>9073300</v>
+      </c>
+      <c r="B6">
+        <v>9073400</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>9081000</v>
+      </c>
+      <c r="B7">
+        <v>3800968</v>
+      </c>
+      <c r="C7">
+        <v>9080800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>3800959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>3802048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>9080400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>3801104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>3800854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>3800869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>9074000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987C3738-179B-4DC1-8622-322AFB7C3724}">
   <dimension ref="A1:U27"/>
   <sheetViews>
@@ -20538,7 +20934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CD1626-B86D-40D7-B52E-7D99A536CCBE}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
@@ -21695,7 +22091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF45C19B-2562-4F30-A25C-F4955E5CEC8C}">
   <dimension ref="A1:L392"/>
   <sheetViews>
@@ -36606,7 +37002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A42ABF9-CFF9-4E24-804A-AD93E12CA199}">
   <dimension ref="A1:L347"/>
   <sheetViews>
@@ -49807,7 +50203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F8B728-FD69-425D-AED3-5D8A05E8419D}">
   <dimension ref="A1:L322"/>
   <sheetViews>
@@ -62056,7 +62452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB913442-4B40-4F79-88F1-C715664C8BE4}">
   <dimension ref="A1:L207"/>
   <sheetViews>
@@ -69935,11 +70331,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE1FDB6-F357-4245-A5FE-FDF1F390818B}">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
@@ -74819,265 +75215,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE5FA78-DC62-4E8F-B3D4-83AC931B2E06}">
-  <dimension ref="A1:M6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D2">
-        <v>3800522</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="G2">
-        <v>309337</v>
-      </c>
-      <c r="H2">
-        <v>4353356</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1151</v>
-      </c>
-      <c r="L2">
-        <v>3800522</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D3">
-        <v>3800651</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G3">
-        <v>308941</v>
-      </c>
-      <c r="H3">
-        <v>4351737</v>
-      </c>
-      <c r="I3">
-        <v>3800651</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="K3">
-        <v>3800651</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D4">
-        <v>3801038</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G4">
-        <v>308048</v>
-      </c>
-      <c r="H4">
-        <v>4349399</v>
-      </c>
-      <c r="I4">
-        <v>3801038</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1161</v>
-      </c>
-      <c r="K4">
-        <v>3801038</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D5">
-        <v>3801052</v>
-      </c>
-      <c r="E5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1163</v>
-      </c>
-      <c r="G5">
-        <v>310046</v>
-      </c>
-      <c r="H5">
-        <v>4351460</v>
-      </c>
-      <c r="I5">
-        <v>3801052</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1163</v>
-      </c>
-      <c r="K5">
-        <v>3801052</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>117</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D6">
-        <v>3802114</v>
-      </c>
-      <c r="E6" t="s">
-        <v>315</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1165</v>
-      </c>
-      <c r="G6">
-        <v>307190</v>
-      </c>
-      <c r="H6">
-        <v>4346555</v>
-      </c>
-      <c r="I6">
-        <v>3802114</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1165</v>
-      </c>
-      <c r="K6">
-        <v>3802114</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>